--- a/Descriptives_template.xlsx
+++ b/Descriptives_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/med-tv_/Documents/GitHub/KU-COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB1A79F-6CEA-F840-91FA-F416BC17157F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D76B25-6B2B-484F-AF81-68CFFB625A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="25440" windowHeight="14020" xr2:uid="{9B8BDAC7-3062-AA4D-A1D7-10EF2C5F3F01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>TEMPO</t>
   </si>
@@ -107,12 +107,6 @@
     <t>6. You can no longer see your friends and family</t>
   </si>
   <si>
-    <t>8. Other (please specify)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. You're not worried about the coronavirus outbreak </t>
-  </si>
-  <si>
     <t>Precautions</t>
   </si>
   <si>
@@ -137,18 +131,111 @@
     <t>missing</t>
   </si>
   <si>
-    <t>Our website (https://coronaminds.ku.dk/english/) was established as an interactive platform to engage the public; here, we continuously publish results from incoming data and, via a dedicated link, we recruited additional respondents to answer the CCMH questionnaire. This recruitment was done in collaboration with the Danish newspaper Politiken, which promoted the project by reporting the initial results and including a link to the CCMH questionnaire, which was launched online on 26 March. As of this writing, 11,358 people have participated via the website.</t>
-  </si>
-  <si>
-    <t>Brief description of the cohort.
+    <t>visit 1</t>
+  </si>
+  <si>
+    <t>visit 2</t>
+  </si>
+  <si>
+    <t>visit 3</t>
+  </si>
+  <si>
+    <t>visit 4</t>
+  </si>
+  <si>
+    <t>visit 5</t>
+  </si>
+  <si>
+    <t>visit 6</t>
+  </si>
+  <si>
+    <t>visit 7</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Date of collection</t>
+  </si>
+  <si>
+    <t>males</t>
+  </si>
+  <si>
+    <t>females</t>
+  </si>
+  <si>
+    <t>age under xx</t>
+  </si>
+  <si>
+    <t>high education</t>
+  </si>
+  <si>
+    <t>other education</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. You're not worried about the coronavirus outbreak </t>
+  </si>
+  <si>
+    <t>having chronic disease</t>
+  </si>
+  <si>
+    <t>no chronic disease</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Our website (https://coronaminds.ku.dk/english/) was established as an interactive platform to engage the public; here, we continuously publish results from incoming data and, via a dedicated link, we recruited additional respondents to answer the CCMH questionnaire. This recruitment was done in collaboration with the Danish newspaper Politiken, which promoted the project by reporting the initial results and including a link to the CCMH questionnaire, which was launched online on 26 March. As of this writing, 11,358 people have participated via the website.*
+* Clotworthy A et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘Standing together – at a distance’: documenting mental health in Denmark during the COVID-19 pandemic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Scandinavian Journal of Public Health, in resubmission</t>
+    </r>
+  </si>
+  <si>
+    <t>Brief description of the cohort (something like you would use in Materials in Methods in other papers, just shorter). Depending on length this will either be Methods or an Appendix.
 Please also include references to the cohort.</t>
+  </si>
+  <si>
+    <t>age above xx</t>
+  </si>
+  <si>
+    <t>No chronic disease (N)</t>
+  </si>
+  <si>
+    <t>Having chronic disease (N)</t>
+  </si>
+  <si>
+    <t>Age under xx (N)</t>
+  </si>
+  <si>
+    <t>Age above xx (N)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,6 +246,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -525,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CFC141-25D9-ED4F-8ADB-DCEE96A8E848}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,50 +668,74 @@
       </c>
       <c r="C4" s="1"/>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>8744</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>2576</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>4082</v>
+        <v>2576</v>
       </c>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>3412</v>
-      </c>
-      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>4082</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>3412</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>3862</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -619,249 +744,593 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7E0CC1-498B-9A42-8422-2A5E0251E2BC}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
       <c r="C12" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16">
         <v>4</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B17">
         <v>5</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B18">
         <v>6</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B19">
         <v>7</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B20">
         <v>8</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B21">
         <v>9</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
       <c r="C21" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>1</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>2</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B26">
         <v>3</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B27">
         <v>4</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B28">
         <v>5</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B29">
         <v>6</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B30">
         <v>7</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B31">
         <v>8</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B32">
         <v>9</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B33">
         <v>10</v>
       </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
       <c r="C33" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>15</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>1</v>
       </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B36">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B37">
         <v>2</v>
       </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B38">
         <v>3</v>
       </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B39">
         <v>4</v>
       </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B39">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B40">
         <v>5</v>
       </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
       <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -870,148 +1339,295 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278469B8-3B43-994A-8608-A0923D0F5133}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1021,7 +1637,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,12 +1646,12 @@
     <col min="2" max="2" width="93.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="140" customHeight="1" x14ac:dyDescent="0.2">
@@ -1043,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">

--- a/Descriptives_template.xlsx
+++ b/Descriptives_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/med-tv_/Documents/GitHub/KU-COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D76B25-6B2B-484F-AF81-68CFFB625A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796E1B69-7EA6-7047-93F7-7355EA2A0DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="25440" windowHeight="14020" xr2:uid="{9B8BDAC7-3062-AA4D-A1D7-10EF2C5F3F01}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="25440" windowHeight="14020" activeTab="3" xr2:uid="{9B8BDAC7-3062-AA4D-A1D7-10EF2C5F3F01}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptives" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CFC141-25D9-ED4F-8ADB-DCEE96A8E848}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -747,7 +747,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1636,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EEC551-63AC-274E-A9F4-C9A9EC7D969F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
